--- a/DATA_goal/Junction_Flooding_251.xlsx
+++ b/DATA_goal/Junction_Flooding_251.xlsx
@@ -457,7 +457,7 @@
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
@@ -655,103 +655,103 @@
         <v>41683.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>17.3</v>
+        <v>1.73</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>11.41</v>
+        <v>1.14</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.99</v>
+        <v>0.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>36.82</v>
+        <v>3.68</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>28.93</v>
+        <v>2.89</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.61</v>
+        <v>1.36</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>42.1</v>
+        <v>4.21</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>20.94</v>
+        <v>2.09</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.630000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>12.85</v>
+        <v>1.28</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.48</v>
+        <v>1.45</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>15.03</v>
+        <v>1.5</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.34</v>
+        <v>0.43</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>18.8</v>
+        <v>1.88</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.72</v>
+        <v>1.17</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.39</v>
+        <v>0.34</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>198.65</v>
+        <v>19.86</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>37.58</v>
+        <v>3.76</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>24.54</v>
+        <v>2.45</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.43</v>
+        <v>1.24</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.15</v>
+        <v>0.31</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>21.51</v>
+        <v>2.15</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.03</v>
+        <v>1.1</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.83</v>
+        <v>1.18</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>15.03</v>
+        <v>1.5</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.32</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>37.61</v>
+        <v>3.76</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.76</v>
+        <v>0.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41683.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>21.72</v>
+        <v>2.17</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.59</v>
+        <v>1.56</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.99</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>47.07</v>
+        <v>4.71</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>38</v>
+        <v>3.8</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>17.09</v>
+        <v>1.71</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>64.55</v>
+        <v>6.45</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>26.29</v>
+        <v>2.63</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.47</v>
+        <v>1.15</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>16.9</v>
+        <v>1.69</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.84</v>
+        <v>1.88</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>19.76</v>
+        <v>1.98</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.46</v>
+        <v>0.55</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16.99</v>
+        <v>1.7</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>24.03</v>
+        <v>2.4</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.53</v>
+        <v>1.45</v>
       </c>
       <c r="R3" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>25.13</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="V3" s="4" t="n">
         <v>1.57</v>
       </c>
-      <c r="S3" s="4" t="n">
+      <c r="W3" s="4" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AB3" s="4" t="n">
         <v>1.24</v>
       </c>
-      <c r="T3" s="4" t="n">
-        <v>251.35</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>47.52</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>15.69</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>31.65</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>12.43</v>
-      </c>
       <c r="AC3" s="4" t="n">
-        <v>14.6</v>
+        <v>1.46</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>19.69</v>
+        <v>1.97</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>58.87</v>
+        <v>5.89</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.710000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>19.61</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41683.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.88</v>
+        <v>0.79</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.45</v>
+        <v>0.55</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>17.07</v>
+        <v>1.71</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>13.44</v>
+        <v>1.34</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.2</v>
+        <v>0.62</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>28.52</v>
+        <v>2.85</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.09</v>
+        <v>0.41</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.86</v>
+        <v>0.59</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.84</v>
+        <v>0.68</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.13</v>
+        <v>0.71</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.99</v>
+        <v>0.2</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.17</v>
+        <v>0.62</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.67</v>
+        <v>0.87</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.45</v>
+        <v>0.55</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>86.55</v>
+        <v>8.66</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>17.44</v>
+        <v>1.74</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.69</v>
+        <v>0.57</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.45</v>
+        <v>1.14</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.25</v>
+        <v>0.13</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.26</v>
+        <v>1.33</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.03</v>
+        <v>0.5</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.61</v>
+        <v>0.46</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.4</v>
+        <v>0.54</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.12</v>
+        <v>0.71</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>26.3</v>
+        <v>2.63</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.12</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41683.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>22.87</v>
+        <v>2.29</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.83</v>
+        <v>1.68</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>49.71</v>
+        <v>4.97</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>40.57</v>
+        <v>4.06</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18</v>
+        <v>1.8</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>66.90000000000001</v>
+        <v>6.69</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>27.69</v>
+        <v>2.77</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.27</v>
+        <v>1.23</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>18.16</v>
+        <v>1.82</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>19.95</v>
+        <v>1.99</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>21.03</v>
+        <v>2.1</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.75</v>
+        <v>0.57</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>17.9</v>
+        <v>1.79</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>25.44</v>
+        <v>2.54</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.1</v>
+        <v>1.51</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>265.07</v>
+        <v>26.51</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>49.98</v>
+        <v>5</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>16.52</v>
+        <v>1.65</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>33.57</v>
+        <v>3.36</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.6</v>
+        <v>1.76</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.68</v>
+        <v>0.27</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>32.93</v>
+        <v>3.29</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.59</v>
+        <v>1.46</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.95</v>
+        <v>1.3</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.22</v>
+        <v>1.52</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>20.92</v>
+        <v>2.09</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>60.68</v>
+        <v>6.07</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.279999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>20.65</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41683.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>17.2</v>
+        <v>1.72</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>12.65</v>
+        <v>1.26</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>37.39</v>
+        <v>3.74</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>30.47</v>
+        <v>3.05</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>13.54</v>
+        <v>1.35</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>54.11</v>
+        <v>5.41</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>20.83</v>
+        <v>2.08</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>9.24</v>
+        <v>0.92</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>13.62</v>
+        <v>1.36</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>15.01</v>
+        <v>1.5</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>15.82</v>
+        <v>1.58</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>4.32</v>
+        <v>0.43</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>13.46</v>
+        <v>1.35</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>19.15</v>
+        <v>1.91</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>11.38</v>
+        <v>1.14</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>197.56</v>
+        <v>19.76</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>37.69</v>
+        <v>3.77</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>12.42</v>
+        <v>1.24</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>25.29</v>
+        <v>2.53</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>13.24</v>
+        <v>1.32</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>26.07</v>
+        <v>2.61</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>10.97</v>
+        <v>1.1</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>9.75</v>
+        <v>0.98</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>11.46</v>
+        <v>1.15</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>15.74</v>
+        <v>1.57</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>49.28</v>
+        <v>4.93</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>6.97</v>
+        <v>0.7</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>15.53</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41683.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>15.66</v>
+        <v>1.57</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>11.54</v>
+        <v>1.15</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>34.05</v>
+        <v>3.41</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>27.78</v>
+        <v>2.78</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>12.33</v>
+        <v>1.23</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>48.85</v>
+        <v>4.89</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>18.96</v>
+        <v>1.9</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>12.43</v>
+        <v>1.24</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>13.67</v>
+        <v>1.37</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>14.42</v>
+        <v>1.44</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.94</v>
+        <v>0.39</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>12.26</v>
+        <v>1.23</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>17.44</v>
+        <v>1.74</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>10.35</v>
+        <v>1.03</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>179.24</v>
+        <v>17.92</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>34.3</v>
+        <v>3.43</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>11.31</v>
+        <v>1.13</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>23.04</v>
+        <v>2.3</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>12.07</v>
+        <v>1.21</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>23.55</v>
+        <v>2.36</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>9.99</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>10.42</v>
+        <v>1.04</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>14.34</v>
+        <v>1.43</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>44.42</v>
+        <v>4.44</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>6.36</v>
+        <v>0.64</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>14.14</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41683.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>9.99</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>7.31</v>
+        <v>0.73</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA8" s="4" t="n">
         <v>0.64</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>21.73</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>17.63</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>32.85</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>111.71</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>21.95</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>6.38</v>
-      </c>
       <c r="AB8" s="4" t="n">
-        <v>5.68</v>
+        <v>0.57</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>6.68</v>
+        <v>0.67</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>9.15</v>
+        <v>0.91</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>29.98</v>
+        <v>3</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41683.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>15.18</v>
+        <v>1.52</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>11.24</v>
+        <v>1.12</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>33.02</v>
+        <v>3.3</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>27.01</v>
+        <v>2.7</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>11.95</v>
+        <v>1.19</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>45.38</v>
+        <v>4.54</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>18.38</v>
+        <v>1.84</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>8.18</v>
+        <v>0.82</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>12.11</v>
+        <v>1.21</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>13.25</v>
+        <v>1.33</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>13.99</v>
+        <v>1.4</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.82</v>
+        <v>0.38</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>11.88</v>
+        <v>1.19</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>16.91</v>
+        <v>1.69</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>9.99</v>
+        <v>1</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>173.5</v>
+        <v>17.35</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>33.19</v>
+        <v>3.32</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>10.97</v>
+        <v>1.1</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>22.33</v>
+        <v>2.23</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>11.72</v>
+        <v>1.17</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.72</v>
+        <v>0.17</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>22.15</v>
+        <v>2.21</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>9.69</v>
+        <v>0.97</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>8.58</v>
+        <v>0.86</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>10.08</v>
+        <v>1.01</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>13.92</v>
+        <v>1.39</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>41.15</v>
+        <v>4.11</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>6.18</v>
+        <v>0.62</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>13.71</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41683.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>5.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>4.04</v>
+        <v>0.4</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>12.12</v>
+        <v>1.21</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>9.75</v>
+        <v>0.98</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>4.39</v>
+        <v>0.44</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>21.02</v>
+        <v>2.1</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>6.75</v>
+        <v>0.67</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>4.32</v>
+        <v>0.43</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>4.86</v>
+        <v>0.49</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>5.12</v>
+        <v>0.51</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>1.41</v>
+        <v>0.14</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>4.36</v>
+        <v>0.44</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>6.23</v>
+        <v>0.62</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>3.75</v>
+        <v>0.37</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>59.09</v>
+        <v>5.91</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>12.4</v>
+        <v>1.24</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>8.300000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>4.29</v>
+        <v>0.43</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>9.82</v>
+        <v>0.98</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>3.19</v>
+        <v>0.32</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>5.1</v>
+        <v>0.51</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>19.45</v>
+        <v>1.94</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>5.03</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_251.xlsx
+++ b/DATA_goal/Junction_Flooding_251.xlsx
@@ -446,30 +446,30 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -655,103 +655,103 @@
         <v>44932.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.26</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.64</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.43</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.46</v>
+        <v>24.62</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.81</v>
+        <v>18.07</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.59</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.54</v>
+        <v>25.44</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.54</v>
+        <v>5.42</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.79</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.06</v>
+        <v>10.59</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.7</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.22</v>
+        <v>12.23</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.25</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>12.99</v>
+        <v>129.95</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.49</v>
+        <v>24.89</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.72</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.33</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.41</v>
+        <v>14.06</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.89</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.88</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.31</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.69</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.28</v>
+        <v>22.83</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44932.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.43</v>
+        <v>24.31</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.79</v>
+        <v>17.95</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.2</v>
+        <v>2.02</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.32</v>
+        <v>53.22</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.28</v>
+        <v>42.78</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.9</v>
+        <v>19</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>7.09</v>
+        <v>70.91</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.97</v>
+        <v>29.67</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.3</v>
+        <v>12.97</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.9</v>
+        <v>19.03</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.13</v>
+        <v>21.31</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.28</v>
+        <v>22.75</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.6</v>
+        <v>6.01</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.92</v>
+        <v>19.17</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.71</v>
+        <v>27.11</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.64</v>
+        <v>16.41</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>28.45</v>
+        <v>284.54</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.36</v>
+        <v>53.58</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.57</v>
+        <v>35.7</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.87</v>
+        <v>18.71</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.01</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.56</v>
+        <v>35.58</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.56</v>
+        <v>15.63</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.4</v>
+        <v>13.99</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.64</v>
+        <v>16.4</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.24</v>
+        <v>22.41</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.47</v>
+        <v>64.73</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.82</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.21</v>
+        <v>22.13</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44932.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.88</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.85</v>
       </c>
       <c r="E4" s="4" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>16.65</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="N4" s="4" t="n">
         <v>0.62</v>
       </c>
-      <c r="F4" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="O4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.26</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.19</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.25</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>2.71</v>
+        <v>27.12</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.81</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.33</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.12</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.55</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.84</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.09</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.59</v>
+        <v>15.9</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44932.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.45</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.73</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.3</v>
+        <v>22.97</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.84</v>
+        <v>18.36</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.17</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.04</v>
+        <v>30.39</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.8</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.56</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.55</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.27</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.64</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.15</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>11.85</v>
+        <v>118.54</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.3</v>
+        <v>23</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.63</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.52</v>
+        <v>15.25</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.8</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.79</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.06</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.11</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.68</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.73</v>
+        <v>27.3</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.21</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_251.xlsx
+++ b/DATA_goal/Junction_Flooding_251.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44932.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>11.26</v>
+        <v>11.256</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.64</v>
+        <v>7.644</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.43</v>
+        <v>3.425</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>24.62</v>
+        <v>24.615</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>18.07</v>
+        <v>18.068</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.59</v>
+        <v>8.586</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>25.44</v>
+        <v>25.443</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.96</v>
+        <v>13.961</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.42</v>
+        <v>5.416</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.79</v>
+        <v>7.792</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>9.715</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.59</v>
+        <v>10.589</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.7</v>
+        <v>2.697</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>12.23</v>
+        <v>12.231</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>8.25</v>
+        <v>8.247999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>2.68</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.42</v>
+        <v>1.423</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>129.95</v>
+        <v>129.948</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>24.89</v>
+        <v>24.892</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>8.33</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
         <v>15.72</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.19</v>
+        <v>8.193</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>2.33</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>14.06</v>
+        <v>14.063</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.36</v>
+        <v>7.357</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.89</v>
+        <v>6.887</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.88</v>
+        <v>7.883</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>10.31</v>
+        <v>10.309</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.69</v>
+        <v>2.695</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>22.83</v>
+        <v>22.828</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.29</v>
+        <v>4.294</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>10.41</v>
+        <v>10.412</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44932.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>24.31</v>
+        <v>24.307</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.95</v>
+        <v>17.949</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2.02</v>
+        <v>2.024</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>53.22</v>
+        <v>53.217</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>42.78</v>
+        <v>42.781</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>19</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>70.91</v>
+        <v>70.905</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>29.67</v>
+        <v>29.668</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>12.97</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>19.03</v>
+        <v>19.028</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>21.31</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>22.75</v>
+        <v>22.755</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>6.01</v>
+        <v>6.008</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>19.17</v>
+        <v>19.174</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>27.11</v>
+        <v>27.115</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>16.41</v>
+        <v>16.414</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.42</v>
+        <v>1.415</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.21</v>
+        <v>1.209</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>284.54</v>
+        <v>284.536</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>53.58</v>
+        <v>53.576</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>17.7</v>
+        <v>17.698</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>35.7</v>
+        <v>35.698</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>18.71</v>
+        <v>18.708</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>3.01</v>
+        <v>3.008</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>35.58</v>
+        <v>35.583</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>15.63</v>
+        <v>15.633</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.99</v>
+        <v>13.985</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>16.4</v>
+        <v>16.395</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>22.41</v>
+        <v>22.406</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.14</v>
+        <v>1.138</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>64.73</v>
+        <v>64.726</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.82</v>
+        <v>9.824</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>22.13</v>
+        <v>22.127</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44932.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.73</v>
+        <v>2.732</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.88</v>
+        <v>1.879</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.85</v>
+        <v>0.846</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>6.24</v>
+        <v>6.238</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.32</v>
+        <v>4.323</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.07</v>
+        <v>2.073</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>16.65</v>
+        <v>16.652</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>3.49</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.45</v>
+        <v>1.455</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.73</v>
+        <v>1.732</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.48</v>
+        <v>2.484</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.79</v>
+        <v>2.786</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.624</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.26</v>
+        <v>2.256</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.19</v>
+        <v>3.186</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.25</v>
+        <v>2.253</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.83</v>
+        <v>0.828</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.393</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>27.12</v>
+        <v>27.124</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>6.81</v>
+        <v>6.807</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.08</v>
+        <v>2.082</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>4.33</v>
+        <v>4.333</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.12</v>
+        <v>2.116</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.624</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.55</v>
+        <v>7.552</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.84</v>
+        <v>1.839</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.82</v>
+        <v>1.815</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.09</v>
+        <v>2.088</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.61</v>
+        <v>2.606</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.723</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>15.9</v>
+        <v>15.901</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.61</v>
+        <v>2.609</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>9.539999999999999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44932.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>13.83</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>24.54</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>41.51</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.96</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.47</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>158.62</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>30.47</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>20.37</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>37.68</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.58</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_251.xlsx
+++ b/DATA_goal/Junction_Flooding_251.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,37 +967,37 @@
         <v>44932.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.45</v>
+        <v>10.447</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.73</v>
+        <v>7.735</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.898</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>22.97</v>
+        <v>22.975</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>18.36</v>
+        <v>18.362</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.17</v>
+        <v>8.164999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>30.39</v>
+        <v>30.392</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>12.8</v>
+        <v>12.798</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.56</v>
+        <v>5.558</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>8.121</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>9.209</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>9.869999999999999</v>
@@ -1006,52 +1006,52 @@
         <v>2.55</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.27</v>
+        <v>8.271000000000001</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.64</v>
+        <v>11.639</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>7.15</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.696</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.535</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>118.54</v>
+        <v>118.536</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>23</v>
+        <v>22.997</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.63</v>
+        <v>7.635</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>15.25</v>
+        <v>15.249</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>8.036</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.34</v>
+        <v>1.335</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>14.79</v>
+        <v>14.792</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.74</v>
+        <v>6.744</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.06</v>
+        <v>6.065</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>7.11</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.68</v>
+        <v>9.678000000000001</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.53</v>
@@ -1060,10 +1060,114 @@
         <v>27.3</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.21</v>
+        <v>4.206</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>9.544</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44932.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>24.54</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>41.51</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>15.47</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>158.62</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>30.47</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>20.37</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>37.68</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>12.58</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_251.xlsx
+++ b/DATA_goal/Junction_Flooding_251.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,37 +967,37 @@
         <v>44932.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.447</v>
+        <v>10.45</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.735</v>
+        <v>7.73</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.898</v>
+        <v>0.9</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>22.975</v>
+        <v>22.97</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>18.362</v>
+        <v>18.36</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.164999999999999</v>
+        <v>8.17</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>30.392</v>
+        <v>30.39</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>12.798</v>
+        <v>12.8</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.558</v>
+        <v>5.56</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.121</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.209</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>9.869999999999999</v>
@@ -1006,52 +1006,52 @@
         <v>2.55</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.271000000000001</v>
+        <v>8.27</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.639</v>
+        <v>11.64</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>7.15</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.696</v>
+        <v>0.7</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.535</v>
+        <v>0.54</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>118.536</v>
+        <v>118.54</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>22.997</v>
+        <v>23</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.635</v>
+        <v>7.63</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>15.249</v>
+        <v>15.25</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.036</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.335</v>
+        <v>1.34</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>14.792</v>
+        <v>14.79</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.744</v>
+        <v>6.74</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.065</v>
+        <v>6.06</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>7.11</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.678000000000001</v>
+        <v>9.68</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.53</v>
@@ -1060,114 +1060,10 @@
         <v>27.3</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.206</v>
+        <v>4.21</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.544</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44932.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>13.83</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>24.54</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>41.51</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.96</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.47</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>158.62</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>30.47</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>20.37</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>37.68</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.58</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
   </sheetData>
